--- a/KmsReportWS/client-update/Template/zpz.xlsx
+++ b/KmsReportWS/client-update/Template/zpz.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="683" activeTab="2"/>
+    <workbookView xWindow="1260" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="683" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Таблица 1" sheetId="1" r:id="rId1"/>
@@ -2572,6 +2572,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2605,21 +2626,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2644,23 +2650,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2972,8 +2972,8 @@
   <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L52" sqref="L52"/>
+      <pane ySplit="11" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:J99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2991,60 +2991,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="133" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
     </row>
     <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
+      <c r="A2" s="134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="145" t="s">
+      <c r="A4" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
@@ -3059,114 +3059,114 @@
       <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="146" t="s">
+      <c r="A6" s="137" t="s">
         <v>261</v>
       </c>
-      <c r="B6" s="146"/>
-      <c r="C6" s="146"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="131" t="s">
+      <c r="A7" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="141" t="s">
         <v>253</v>
       </c>
-      <c r="C7" s="131" t="s">
+      <c r="C7" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="134" t="s">
+      <c r="D7" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="134" t="s">
+      <c r="E7" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="134" t="s">
+      <c r="F7" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="134" t="s">
+      <c r="G7" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="134" t="s">
+      <c r="H7" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="134" t="s">
+      <c r="I7" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="137" t="s">
+      <c r="J7" s="144" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="132"/>
-      <c r="B8" s="135"/>
-      <c r="C8" s="132" t="s">
+      <c r="A8" s="139"/>
+      <c r="B8" s="142"/>
+      <c r="C8" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="138" t="s">
+      <c r="D8" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="139" t="s">
+      <c r="E8" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="140" t="s">
+      <c r="F8" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="138" t="s">
+      <c r="G8" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="139" t="s">
+      <c r="H8" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="139" t="s">
+      <c r="I8" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="140" t="s">
+      <c r="J8" s="147" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="132"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="132" t="s">
+      <c r="A9" s="139"/>
+      <c r="B9" s="142"/>
+      <c r="C9" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="131" t="s">
+      <c r="D9" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="135" t="s">
+      <c r="E9" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="135" t="s">
+      <c r="F9" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="131" t="s">
+      <c r="G9" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="135" t="s">
+      <c r="H9" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="135" t="s">
+      <c r="I9" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="141" t="s">
+      <c r="J9" s="148" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="133"/>
-      <c r="B10" s="136"/>
-      <c r="C10" s="133" t="s">
+      <c r="A10" s="140"/>
+      <c r="B10" s="143"/>
+      <c r="C10" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="133" t="s">
+      <c r="D10" s="140" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="9" t="s">
@@ -3175,7 +3175,7 @@
       <c r="F10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="133" t="s">
+      <c r="G10" s="140" t="s">
         <v>7</v>
       </c>
       <c r="H10" s="8" t="s">
@@ -6296,11 +6296,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A6:J6"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
@@ -6311,6 +6306,11 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:J9"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:J6"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -6322,7 +6322,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="I10:K10"/>
+      <selection sqref="A1:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6341,103 +6341,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="147"/>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
+      <c r="A1" s="149"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="135" t="s">
         <v>262</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="150" t="s">
         <v>263</v>
       </c>
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="138" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="138" t="s">
+      <c r="C3" s="145" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="139" t="s">
+      <c r="D3" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="140" t="s">
+      <c r="E3" s="147" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="138" t="s">
+      <c r="F3" s="145" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="139" t="s">
+      <c r="G3" s="146" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="139" t="s">
+      <c r="H3" s="146" t="s">
         <v>90</v>
       </c>
-      <c r="I3" s="139" t="s">
+      <c r="I3" s="146" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="139" t="s">
+      <c r="J3" s="146" t="s">
         <v>90</v>
       </c>
-      <c r="K3" s="140" t="s">
+      <c r="K3" s="147" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="149"/>
-      <c r="B4" s="132"/>
-      <c r="C4" s="150" t="s">
+      <c r="A4" s="151"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="138" t="s">
+      <c r="D4" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="140" t="s">
+      <c r="E4" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="150" t="s">
+      <c r="F4" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="138" t="s">
+      <c r="G4" s="145" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="139" t="s">
+      <c r="H4" s="146" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="139" t="s">
+      <c r="I4" s="146" t="s">
         <v>91</v>
       </c>
-      <c r="J4" s="139" t="s">
+      <c r="J4" s="146" t="s">
         <v>91</v>
       </c>
-      <c r="K4" s="140" t="s">
+      <c r="K4" s="147" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="149"/>
-      <c r="B5" s="132"/>
-      <c r="C5" s="150" t="s">
+      <c r="A5" s="151"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="152" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -6446,7 +6446,7 @@
       <c r="E5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="150" t="s">
+      <c r="F5" s="152" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -7283,8 +7283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28:O29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K51" sqref="A1:K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7300,103 +7300,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="147"/>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
+      <c r="A1" s="149"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="135" t="s">
         <v>303</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
     </row>
     <row r="3" spans="1:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="151" t="s">
+      <c r="A3" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="138" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="141" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="134" t="s">
+      <c r="D3" s="141" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="137" t="s">
+      <c r="E3" s="144" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="138" t="s">
+      <c r="F3" s="145" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="139" t="s">
+      <c r="G3" s="146" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="139" t="s">
+      <c r="H3" s="146" t="s">
         <v>90</v>
       </c>
-      <c r="I3" s="139" t="s">
+      <c r="I3" s="146" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="139" t="s">
+      <c r="J3" s="146" t="s">
         <v>90</v>
       </c>
-      <c r="K3" s="140" t="s">
+      <c r="K3" s="147" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="150"/>
-      <c r="B4" s="132"/>
-      <c r="C4" s="137" t="s">
+      <c r="A4" s="152"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="138" t="s">
+      <c r="D4" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="140" t="s">
+      <c r="E4" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="135" t="s">
+      <c r="F4" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="138" t="s">
+      <c r="G4" s="145" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="139" t="s">
+      <c r="H4" s="146" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="139" t="s">
+      <c r="I4" s="146" t="s">
         <v>91</v>
       </c>
-      <c r="J4" s="139" t="s">
+      <c r="J4" s="146" t="s">
         <v>91</v>
       </c>
-      <c r="K4" s="140" t="s">
+      <c r="K4" s="147" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="152"/>
-      <c r="B5" s="133"/>
-      <c r="C5" s="153" t="s">
+      <c r="A5" s="154"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="155" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -7405,7 +7405,7 @@
       <c r="E5" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="135" t="s">
+      <c r="F5" s="142" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -8929,13 +8929,13 @@
       <c r="H46" s="76">
         <v>0</v>
       </c>
-      <c r="I46" s="159">
-        <v>0</v>
-      </c>
-      <c r="J46" s="159">
-        <v>0</v>
-      </c>
-      <c r="K46" s="160">
+      <c r="I46" s="131">
+        <v>0</v>
+      </c>
+      <c r="J46" s="131">
+        <v>0</v>
+      </c>
+      <c r="K46" s="132">
         <v>0</v>
       </c>
     </row>
@@ -9146,8 +9146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9159,49 +9159,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="147"/>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
+      <c r="A1" s="149"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
+      <c r="A2" s="149"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
     </row>
     <row r="3" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="156" t="s">
         <v>336</v>
       </c>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="151" t="s">
+      <c r="A4" s="153" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="138" t="s">
         <v>253</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="141" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="151" t="s">
+      <c r="D4" s="153" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="137" t="s">
+      <c r="E4" s="144" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="152"/>
-      <c r="B5" s="133"/>
-      <c r="C5" s="136" t="s">
+      <c r="A5" s="154"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="143" t="s">
         <v>127</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -9374,8 +9374,8 @@
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9392,82 +9392,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="147"/>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
+      <c r="A1" s="149"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
     </row>
     <row r="2" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="160" t="s">
         <v>387</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="138" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="141" t="s">
         <v>338</v>
       </c>
-      <c r="D3" s="131" t="s">
+      <c r="D3" s="138" t="s">
         <v>339</v>
       </c>
-      <c r="E3" s="151" t="s">
+      <c r="E3" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="134" t="s">
+      <c r="F3" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="134" t="s">
+      <c r="G3" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="137" t="s">
+      <c r="H3" s="144" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="132"/>
-      <c r="B4" s="132"/>
-      <c r="C4" s="135" t="s">
+      <c r="A4" s="139"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="142" t="s">
         <v>338</v>
       </c>
-      <c r="D4" s="132" t="s">
+      <c r="D4" s="139" t="s">
         <v>339</v>
       </c>
-      <c r="E4" s="138" t="s">
+      <c r="E4" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="140" t="s">
+      <c r="F4" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="138" t="s">
+      <c r="G4" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="140" t="s">
+      <c r="H4" s="147" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="133"/>
-      <c r="B5" s="133"/>
-      <c r="C5" s="136" t="s">
+      <c r="A5" s="140"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="143" t="s">
         <v>338</v>
       </c>
-      <c r="D5" s="133" t="s">
+      <c r="D5" s="140" t="s">
         <v>339</v>
       </c>
       <c r="E5" s="90" t="s">
@@ -10977,20 +10977,20 @@
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="119"/>
       <c r="B61" s="117"/>
-      <c r="C61" s="157"/>
-      <c r="D61" s="157"/>
-      <c r="E61" s="157"/>
+      <c r="C61" s="158"/>
+      <c r="D61" s="158"/>
+      <c r="E61" s="158"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="118" t="s">
         <v>389</v>
       </c>
       <c r="B62" s="117"/>
-      <c r="C62" s="158" t="s">
+      <c r="C62" s="159" t="s">
         <v>390</v>
       </c>
-      <c r="D62" s="158"/>
-      <c r="E62" s="158"/>
+      <c r="D62" s="159"/>
+      <c r="E62" s="159"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="116"/>
@@ -11005,8 +11005,8 @@
       <c r="C64" s="116" t="s">
         <v>391</v>
       </c>
-      <c r="D64" s="156"/>
-      <c r="E64" s="156"/>
+      <c r="D64" s="157"/>
+      <c r="E64" s="157"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="116"/>
@@ -11027,20 +11027,20 @@
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="119"/>
       <c r="B67" s="117"/>
-      <c r="C67" s="157"/>
-      <c r="D67" s="157"/>
-      <c r="E67" s="157"/>
+      <c r="C67" s="158"/>
+      <c r="D67" s="158"/>
+      <c r="E67" s="158"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="118" t="s">
         <v>389</v>
       </c>
       <c r="B68" s="117"/>
-      <c r="C68" s="158" t="s">
+      <c r="C68" s="159" t="s">
         <v>390</v>
       </c>
-      <c r="D68" s="158"/>
-      <c r="E68" s="158"/>
+      <c r="D68" s="159"/>
+      <c r="E68" s="159"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="116"/>
@@ -11055,8 +11055,8 @@
       <c r="C70" s="116" t="s">
         <v>391</v>
       </c>
-      <c r="D70" s="156"/>
-      <c r="E70" s="156"/>
+      <c r="D70" s="157"/>
+      <c r="E70" s="157"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="120" t="s">
@@ -11069,12 +11069,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:E68"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:A5"/>
@@ -11084,6 +11078,12 @@
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
